--- a/resources/datos.xlsx
+++ b/resources/datos.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
   <si>
     <t>persona</t>
   </si>
@@ -441,36 +441,36 @@
   <sheetData>
     <row r="1">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>-4.7648109E8</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>-4.7648109E8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.7648109E8</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -492,36 +492,36 @@
     </row>
     <row r="4">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>-4.7648109E8</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>-4.7648109E8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.7648109E8</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -543,36 +543,36 @@
     </row>
     <row r="7">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>-4.7648109E8</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>-4.7648109E8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -580,13 +580,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.7648109E8</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -594,36 +594,36 @@
     </row>
     <row r="10">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>-4.7648109E8</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>-4.7648109E8</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.7648109E8</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -645,23 +645,6 @@
     </row>
     <row r="13">
       <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
@@ -677,7 +660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="14">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -694,7 +677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="15">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -711,7 +694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="16">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -728,7 +711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18">
+    <row r="17">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -745,7 +728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="18">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -762,21 +745,38 @@
         <v>13</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.5037178E7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="20">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>6.5037178E7</v>
+        <v>-4.7648109E8</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
